--- a/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240E7727-D3F2-F748-8432-0A21E4873DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99680081-805D-D246-A434-3F4B32EC94EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="753">
   <si>
     <t>username</t>
   </si>
@@ -1556,28 +1556,742 @@
     <t>K010300981246</t>
   </si>
   <si>
-    <t xml:space="preserve"> (XII AKL 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XII AKL 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XII PM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XII MPLB 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XII MPLB 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XII TJKT 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XII TJKT 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XII TJKT 3)</t>
+    <t>K010300981001@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981002@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981003@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981004@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981005@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981006@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981007@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981008@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981009@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981010@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981011@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981012@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981013@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981014@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981015@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981016@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981017@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981018@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981019@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981020@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981021@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981022@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981023@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981024@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981025@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981026@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981027@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981028@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981029@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981030@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981031@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981032@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981033@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981034@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981035@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981036@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981037@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981038@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981039@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981040@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981041@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981042@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981043@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981044@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981045@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981046@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981047@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981048@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981049@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981050@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981051@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981052@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981053@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981054@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981055@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981056@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981057@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981058@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981059@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981060@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981061@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981062@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981063@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981064@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981065@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981066@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981067@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981068@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981069@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981070@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981071@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981072@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981073@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981074@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981075@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981076@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981077@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981078@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981079@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981080@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981081@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981082@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981083@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981084@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981085@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981086@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981087@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981088@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981089@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981090@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981091@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981092@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981093@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981094@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981095@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981096@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981097@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981098@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981099@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981100@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981101@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981102@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981103@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981104@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981105@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981106@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981107@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981108@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981109@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981110@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981111@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981112@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981113@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981114@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981115@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981116@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981117@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981118@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981119@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981120@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981121@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981122@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981123@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981124@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981125@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981126@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981127@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981128@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981129@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981130@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981131@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981132@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981133@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981134@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981135@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981136@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981137@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981138@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981139@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981140@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981141@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981142@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981143@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981144@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981145@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981146@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981147@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981148@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981149@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981150@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981151@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981152@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981153@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981154@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981155@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981156@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981157@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981158@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981159@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981160@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981161@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981162@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981163@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981164@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981165@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981166@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981167@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981168@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981169@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981170@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981171@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981172@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981173@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981174@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981175@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981176@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981177@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981178@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981179@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981180@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981181@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981182@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981183@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981184@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981185@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981186@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981187@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981188@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981189@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981190@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981191@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981192@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981193@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981194@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981195@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981196@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981197@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981198@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981199@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981200@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981201@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981202@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981203@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981204@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981205@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981206@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981207@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981208@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981209@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981210@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981211@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981212@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981213@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981214@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981215@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981216@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981217@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981218@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981219@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981220@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981221@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981222@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981223@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981224@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981225@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981226@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981227@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981228@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981229@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981230@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981231@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981232@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981233@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981234@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981235@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981236@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981237@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981238@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981239@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981240@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981241@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981242@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981243@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981244@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981245@gmail.com</t>
+  </si>
+  <si>
+    <t>K010300981246@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2129,9 +2843,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2169,7 +2883,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2275,7 +2989,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2417,7 +3131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2428,7 +3142,7 @@
   <dimension ref="A1:F1043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2471,11 +3185,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>507</v>
-      </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(A2,"@gmail.com")</f>
-        <v>K010300981001@gmail.com</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -2492,11 +3205,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">CONCATENATE(A3,"@gmail.com")</f>
-        <v>K010300981002@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>508</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2513,11 +3225,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981003@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>509</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2534,11 +3245,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981004@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>510</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -2555,11 +3265,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981005@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>511</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2576,11 +3285,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981006@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>512</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -2597,11 +3305,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981007@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>513</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2618,11 +3325,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981008@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>514</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2639,11 +3345,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981009@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>515</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2660,11 +3365,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981010@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>516</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -2681,11 +3385,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981011@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>517</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2702,11 +3405,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981012@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>518</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2723,11 +3425,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981013@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>519</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2744,11 +3445,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981014@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>520</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2765,11 +3465,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981015@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>521</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -2786,11 +3485,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981016@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>522</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -2807,11 +3505,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981017@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>523</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -2828,11 +3525,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981018@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>524</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2849,11 +3545,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981019@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>525</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
@@ -2870,11 +3565,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981020@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>526</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>7</v>
@@ -2891,11 +3585,10 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981021@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>527</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2912,11 +3605,10 @@
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981022@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>528</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -2933,11 +3625,10 @@
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981023@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>529</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
@@ -2954,11 +3645,10 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981024@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>530</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -2975,11 +3665,10 @@
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981025@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>531</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -2996,11 +3685,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981026@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>532</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>33</v>
@@ -3017,11 +3705,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981027@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>533</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>33</v>
@@ -3038,11 +3725,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981028@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>534</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>33</v>
@@ -3059,11 +3745,10 @@
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981029@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>535</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>33</v>
@@ -3080,11 +3765,10 @@
         <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981030@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>536</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
@@ -3101,11 +3785,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981031@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>537</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>33</v>
@@ -3122,11 +3805,10 @@
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981032@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>538</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>33</v>
@@ -3143,11 +3825,10 @@
         <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981033@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>539</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
@@ -3164,11 +3845,10 @@
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981034@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>540</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>33</v>
@@ -3185,11 +3865,10 @@
         <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981035@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>541</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>33</v>
@@ -3206,11 +3885,10 @@
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981036@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>542</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>33</v>
@@ -3227,11 +3905,10 @@
         <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981037@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>543</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>33</v>
@@ -3248,11 +3925,10 @@
         <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981038@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>544</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>33</v>
@@ -3269,11 +3945,10 @@
         <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981039@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>545</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>33</v>
@@ -3290,11 +3965,10 @@
         <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981040@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>546</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>33</v>
@@ -3311,11 +3985,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981041@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>547</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>33</v>
@@ -3332,11 +4005,10 @@
         <v>49</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981042@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>548</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>33</v>
@@ -3353,11 +4025,10 @@
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981043@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>549</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>33</v>
@@ -3374,11 +4045,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981044@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>550</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>33</v>
@@ -3395,11 +4065,10 @@
         <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981045@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>551</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>33</v>
@@ -3416,11 +4085,10 @@
         <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981046@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>552</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>33</v>
@@ -3437,11 +4105,10 @@
         <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981047@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>553</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>33</v>
@@ -3458,11 +4125,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981048@gmail.com</v>
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>554</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>33</v>
@@ -3479,11 +4145,10 @@
         <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981049@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>555</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
@@ -3500,11 +4165,10 @@
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981050@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>556</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>57</v>
@@ -3521,11 +4185,10 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981051@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>557</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>57</v>
@@ -3542,11 +4205,10 @@
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981052@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>558</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>57</v>
@@ -3563,11 +4225,10 @@
         <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981053@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>559</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>57</v>
@@ -3584,11 +4245,10 @@
         <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981054@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>560</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>57</v>
@@ -3605,11 +4265,10 @@
         <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981055@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E56" t="s">
+        <v>561</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>57</v>
@@ -3626,11 +4285,10 @@
         <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981056@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>562</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>57</v>
@@ -3647,11 +4305,10 @@
         <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981057@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>563</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>57</v>
@@ -3668,11 +4325,10 @@
         <v>66</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981058@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>564</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>57</v>
@@ -3689,11 +4345,10 @@
         <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981059@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
+        <v>565</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>57</v>
@@ -3710,11 +4365,10 @@
         <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981060@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E61" t="s">
+        <v>566</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>57</v>
@@ -3731,11 +4385,10 @@
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981061@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E62" t="s">
+        <v>567</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>57</v>
@@ -3752,11 +4405,10 @@
         <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981062@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E63" t="s">
+        <v>568</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>57</v>
@@ -3773,11 +4425,10 @@
         <v>71</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981063@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E64" t="s">
+        <v>569</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>57</v>
@@ -3794,11 +4445,10 @@
         <v>72</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981064@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E65" t="s">
+        <v>570</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>57</v>
@@ -3815,11 +4465,10 @@
         <v>73</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>K010300981065@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E66" t="s">
+        <v>571</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>57</v>
@@ -3836,11 +4485,10 @@
         <v>74</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">CONCATENATE(A67,"@gmail.com")</f>
-        <v>K010300981066@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>572</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>57</v>
@@ -3857,11 +4505,10 @@
         <v>75</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981067@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E68" t="s">
+        <v>573</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>57</v>
@@ -3878,11 +4525,10 @@
         <v>76</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981068@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>574</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>57</v>
@@ -3899,11 +4545,10 @@
         <v>77</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981069@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E70" t="s">
+        <v>575</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>57</v>
@@ -3920,11 +4565,10 @@
         <v>78</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981070@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E71" t="s">
+        <v>576</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>57</v>
@@ -3941,11 +4585,10 @@
         <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981071@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E72" t="s">
+        <v>577</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>57</v>
@@ -3962,11 +4605,10 @@
         <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981072@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E73" t="s">
+        <v>578</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>57</v>
@@ -3983,11 +4625,10 @@
         <v>81</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981073@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>579</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>57</v>
@@ -4004,11 +4645,10 @@
         <v>82</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981074@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E75" t="s">
+        <v>580</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>57</v>
@@ -4025,11 +4665,10 @@
         <v>83</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981075@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E76" t="s">
+        <v>581</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>57</v>
@@ -4046,11 +4685,10 @@
         <v>84</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981076@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E77" t="s">
+        <v>582</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>57</v>
@@ -4067,11 +4705,10 @@
         <v>85</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981077@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E78" t="s">
+        <v>583</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>57</v>
@@ -4088,11 +4725,10 @@
         <v>86</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981078@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>584</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>57</v>
@@ -4109,11 +4745,10 @@
         <v>87</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981079@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E80" t="s">
+        <v>585</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>57</v>
@@ -4130,11 +4765,10 @@
         <v>88</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981080@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E81" t="s">
+        <v>586</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>57</v>
@@ -4151,11 +4785,10 @@
         <v>89</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981081@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E82" t="s">
+        <v>587</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>57</v>
@@ -4172,11 +4805,10 @@
         <v>90</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981082@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E83" t="s">
+        <v>588</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>57</v>
@@ -4193,11 +4825,10 @@
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981083@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E84" t="s">
+        <v>589</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>57</v>
@@ -4214,11 +4845,10 @@
         <v>92</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981084@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E85" t="s">
+        <v>590</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>57</v>
@@ -4235,11 +4865,10 @@
         <v>93</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981085@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E86" t="s">
+        <v>591</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>57</v>
@@ -4256,11 +4885,10 @@
         <v>94</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981086@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E87" t="s">
+        <v>592</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>57</v>
@@ -4277,11 +4905,10 @@
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981087@gmail.com</v>
+        <v>57</v>
+      </c>
+      <c r="E88" t="s">
+        <v>593</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>57</v>
@@ -4298,11 +4925,10 @@
         <v>96</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981088@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E89" t="s">
+        <v>594</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>97</v>
@@ -4319,11 +4945,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981089@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>595</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>97</v>
@@ -4340,11 +4965,10 @@
         <v>99</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981090@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E91" t="s">
+        <v>596</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>97</v>
@@ -4361,11 +4985,10 @@
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981091@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E92" t="s">
+        <v>597</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>97</v>
@@ -4382,11 +5005,10 @@
         <v>101</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981092@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E93" t="s">
+        <v>598</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>97</v>
@@ -4403,11 +5025,10 @@
         <v>102</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981093@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>599</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>97</v>
@@ -4424,11 +5045,10 @@
         <v>103</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981094@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E95" t="s">
+        <v>600</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>97</v>
@@ -4445,11 +5065,10 @@
         <v>104</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981095@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E96" t="s">
+        <v>601</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>97</v>
@@ -4466,11 +5085,10 @@
         <v>105</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981096@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E97" t="s">
+        <v>602</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>97</v>
@@ -4487,11 +5105,10 @@
         <v>106</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981097@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>603</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>97</v>
@@ -4508,11 +5125,10 @@
         <v>107</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981098@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E99" t="s">
+        <v>604</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>97</v>
@@ -4529,11 +5145,10 @@
         <v>108</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981099@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E100" t="s">
+        <v>605</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>97</v>
@@ -4550,11 +5165,10 @@
         <v>109</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981100@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E101" t="s">
+        <v>606</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>97</v>
@@ -4571,11 +5185,10 @@
         <v>110</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981101@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E102" t="s">
+        <v>607</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>97</v>
@@ -4592,11 +5205,10 @@
         <v>111</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981102@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E103" t="s">
+        <v>608</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>97</v>
@@ -4613,11 +5225,10 @@
         <v>112</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981103@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E104" t="s">
+        <v>609</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>97</v>
@@ -4634,11 +5245,10 @@
         <v>113</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981104@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E105" t="s">
+        <v>610</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>97</v>
@@ -4655,11 +5265,10 @@
         <v>114</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981105@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E106" t="s">
+        <v>611</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>97</v>
@@ -4676,11 +5285,10 @@
         <v>115</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981106@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E107" t="s">
+        <v>612</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>97</v>
@@ -4697,11 +5305,10 @@
         <v>116</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981107@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E108" t="s">
+        <v>613</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>97</v>
@@ -4718,11 +5325,10 @@
         <v>117</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981108@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E109" t="s">
+        <v>614</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>97</v>
@@ -4739,11 +5345,10 @@
         <v>118</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981109@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E110" t="s">
+        <v>615</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>97</v>
@@ -4760,11 +5365,10 @@
         <v>119</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981110@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E111" t="s">
+        <v>616</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>97</v>
@@ -4781,11 +5385,10 @@
         <v>120</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981111@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E112" t="s">
+        <v>617</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>97</v>
@@ -4802,11 +5405,10 @@
         <v>121</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981112@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E113" t="s">
+        <v>618</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>97</v>
@@ -4823,11 +5425,10 @@
         <v>122</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981113@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E114" t="s">
+        <v>619</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>97</v>
@@ -4844,11 +5445,10 @@
         <v>123</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981114@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E115" t="s">
+        <v>620</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>97</v>
@@ -4865,11 +5465,10 @@
         <v>124</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981115@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E116" t="s">
+        <v>621</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>97</v>
@@ -4886,11 +5485,10 @@
         <v>125</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981116@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E117" t="s">
+        <v>622</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>97</v>
@@ -4907,11 +5505,10 @@
         <v>126</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981117@gmail.com</v>
+        <v>97</v>
+      </c>
+      <c r="E118" t="s">
+        <v>623</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>97</v>
@@ -4928,11 +5525,10 @@
         <v>127</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981118@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E119" t="s">
+        <v>624</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>128</v>
@@ -4949,11 +5545,10 @@
         <v>129</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981119@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E120" t="s">
+        <v>625</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>128</v>
@@ -4970,11 +5565,10 @@
         <v>130</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981120@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E121" t="s">
+        <v>626</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>128</v>
@@ -4991,11 +5585,10 @@
         <v>131</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E122" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981121@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E122" t="s">
+        <v>627</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>128</v>
@@ -5012,11 +5605,10 @@
         <v>132</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981122@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E123" t="s">
+        <v>628</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>128</v>
@@ -5033,11 +5625,10 @@
         <v>133</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981123@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E124" t="s">
+        <v>629</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>128</v>
@@ -5054,11 +5645,10 @@
         <v>134</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981124@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E125" t="s">
+        <v>630</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>128</v>
@@ -5075,11 +5665,10 @@
         <v>135</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981125@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E126" t="s">
+        <v>631</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>128</v>
@@ -5096,11 +5685,10 @@
         <v>136</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981126@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E127" t="s">
+        <v>632</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>128</v>
@@ -5117,11 +5705,10 @@
         <v>137</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981127@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E128" t="s">
+        <v>633</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>128</v>
@@ -5138,11 +5725,10 @@
         <v>138</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981128@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E129" t="s">
+        <v>634</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>128</v>
@@ -5159,11 +5745,10 @@
         <v>139</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" si="1"/>
-        <v>K010300981129@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E130" t="s">
+        <v>635</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>128</v>
@@ -5180,11 +5765,10 @@
         <v>140</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="2">CONCATENATE(A131,"@gmail.com")</f>
-        <v>K010300981130@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E131" t="s">
+        <v>636</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>128</v>
@@ -5201,11 +5785,10 @@
         <v>141</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981131@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E132" t="s">
+        <v>637</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>128</v>
@@ -5222,11 +5805,10 @@
         <v>142</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981132@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E133" t="s">
+        <v>638</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>128</v>
@@ -5243,11 +5825,10 @@
         <v>143</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E134" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981133@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E134" t="s">
+        <v>639</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>128</v>
@@ -5264,11 +5845,10 @@
         <v>144</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E135" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981134@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E135" t="s">
+        <v>640</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>128</v>
@@ -5285,11 +5865,10 @@
         <v>145</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E136" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981135@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E136" t="s">
+        <v>641</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>128</v>
@@ -5306,11 +5885,10 @@
         <v>146</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E137" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981136@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E137" t="s">
+        <v>642</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>128</v>
@@ -5327,11 +5905,10 @@
         <v>147</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E138" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981137@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E138" t="s">
+        <v>643</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>128</v>
@@ -5348,11 +5925,10 @@
         <v>148</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E139" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981138@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E139" t="s">
+        <v>644</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>128</v>
@@ -5369,11 +5945,10 @@
         <v>149</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E140" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981139@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E140" t="s">
+        <v>645</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>128</v>
@@ -5390,11 +5965,10 @@
         <v>150</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E141" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981140@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E141" t="s">
+        <v>646</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>128</v>
@@ -5411,11 +5985,10 @@
         <v>151</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E142" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981141@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E142" t="s">
+        <v>647</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>128</v>
@@ -5432,11 +6005,10 @@
         <v>152</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E143" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981142@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E143" t="s">
+        <v>648</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>128</v>
@@ -5453,11 +6025,10 @@
         <v>153</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E144" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981143@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E144" t="s">
+        <v>649</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>128</v>
@@ -5474,11 +6045,10 @@
         <v>154</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E145" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981144@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E145" t="s">
+        <v>650</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>128</v>
@@ -5495,11 +6065,10 @@
         <v>155</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E146" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981145@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E146" t="s">
+        <v>651</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>128</v>
@@ -5516,11 +6085,10 @@
         <v>156</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E147" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981146@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E147" t="s">
+        <v>652</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>128</v>
@@ -5537,11 +6105,10 @@
         <v>157</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E148" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981147@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E148" t="s">
+        <v>653</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>128</v>
@@ -5558,11 +6125,10 @@
         <v>158</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E149" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981148@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E149" t="s">
+        <v>654</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>128</v>
@@ -5579,11 +6145,10 @@
         <v>159</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E150" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981149@gmail.com</v>
+        <v>128</v>
+      </c>
+      <c r="E150" t="s">
+        <v>655</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>128</v>
@@ -5600,11 +6165,10 @@
         <v>160</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E151" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981150@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E151" t="s">
+        <v>656</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>161</v>
@@ -5621,11 +6185,10 @@
         <v>162</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E152" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981151@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E152" t="s">
+        <v>657</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>161</v>
@@ -5642,11 +6205,10 @@
         <v>163</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E153" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981152@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E153" t="s">
+        <v>658</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>161</v>
@@ -5663,11 +6225,10 @@
         <v>164</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E154" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981153@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E154" t="s">
+        <v>659</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>161</v>
@@ -5684,11 +6245,10 @@
         <v>165</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E155" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981154@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E155" t="s">
+        <v>660</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>161</v>
@@ -5705,11 +6265,10 @@
         <v>166</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E156" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981155@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E156" t="s">
+        <v>661</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>161</v>
@@ -5726,11 +6285,10 @@
         <v>167</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E157" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981156@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E157" t="s">
+        <v>662</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>161</v>
@@ -5747,11 +6305,10 @@
         <v>168</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E158" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981157@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E158" t="s">
+        <v>663</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>161</v>
@@ -5768,11 +6325,10 @@
         <v>169</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E159" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981158@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E159" t="s">
+        <v>664</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>161</v>
@@ -5789,11 +6345,10 @@
         <v>170</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E160" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981159@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E160" t="s">
+        <v>665</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>161</v>
@@ -5810,11 +6365,10 @@
         <v>171</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E161" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981160@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E161" t="s">
+        <v>666</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>161</v>
@@ -5831,11 +6385,10 @@
         <v>172</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E162" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981161@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E162" t="s">
+        <v>667</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>161</v>
@@ -5852,11 +6405,10 @@
         <v>173</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E163" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981162@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E163" t="s">
+        <v>668</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>161</v>
@@ -5873,11 +6425,10 @@
         <v>174</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E164" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981163@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E164" t="s">
+        <v>669</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>161</v>
@@ -5894,11 +6445,10 @@
         <v>175</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E165" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981164@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E165" t="s">
+        <v>670</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>161</v>
@@ -5915,11 +6465,10 @@
         <v>176</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E166" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981165@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E166" t="s">
+        <v>671</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>161</v>
@@ -5936,11 +6485,10 @@
         <v>177</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E167" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981166@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E167" t="s">
+        <v>672</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>161</v>
@@ -5957,11 +6505,10 @@
         <v>178</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E168" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981167@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E168" t="s">
+        <v>673</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>161</v>
@@ -5978,11 +6525,10 @@
         <v>179</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E169" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981168@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E169" t="s">
+        <v>674</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>161</v>
@@ -5999,11 +6545,10 @@
         <v>180</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E170" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981169@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E170" t="s">
+        <v>675</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>161</v>
@@ -6020,11 +6565,10 @@
         <v>181</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E171" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981170@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E171" t="s">
+        <v>676</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>161</v>
@@ -6041,11 +6585,10 @@
         <v>182</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E172" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981171@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E172" t="s">
+        <v>677</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>161</v>
@@ -6062,11 +6605,10 @@
         <v>183</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E173" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981172@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E173" t="s">
+        <v>678</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>161</v>
@@ -6083,11 +6625,10 @@
         <v>184</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981173@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E174" t="s">
+        <v>679</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>161</v>
@@ -6104,11 +6645,10 @@
         <v>185</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E175" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981174@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E175" t="s">
+        <v>680</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>161</v>
@@ -6125,11 +6665,10 @@
         <v>186</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E176" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981175@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E176" t="s">
+        <v>681</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>161</v>
@@ -6146,11 +6685,10 @@
         <v>187</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E177" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981176@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E177" t="s">
+        <v>682</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>161</v>
@@ -6167,11 +6705,10 @@
         <v>188</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E178" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981177@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E178" t="s">
+        <v>683</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>161</v>
@@ -6188,11 +6725,10 @@
         <v>189</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E179" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981178@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E179" t="s">
+        <v>684</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>161</v>
@@ -6209,11 +6745,10 @@
         <v>190</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E180" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981179@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E180" t="s">
+        <v>685</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>161</v>
@@ -6230,11 +6765,10 @@
         <v>191</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E181" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981180@gmail.com</v>
+        <v>161</v>
+      </c>
+      <c r="E181" t="s">
+        <v>686</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>161</v>
@@ -6251,11 +6785,10 @@
         <v>192</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E182" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981181@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E182" t="s">
+        <v>687</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>193</v>
@@ -6272,11 +6805,10 @@
         <v>194</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E183" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981182@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E183" t="s">
+        <v>688</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>193</v>
@@ -6293,11 +6825,10 @@
         <v>195</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E184" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981183@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E184" t="s">
+        <v>689</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>193</v>
@@ -6314,11 +6845,10 @@
         <v>196</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E185" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981184@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E185" t="s">
+        <v>690</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>193</v>
@@ -6335,11 +6865,10 @@
         <v>197</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E186" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981185@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E186" t="s">
+        <v>691</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>193</v>
@@ -6356,11 +6885,10 @@
         <v>198</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E187" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981186@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E187" t="s">
+        <v>692</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>193</v>
@@ -6377,11 +6905,10 @@
         <v>199</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E188" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981187@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E188" t="s">
+        <v>693</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>193</v>
@@ -6398,11 +6925,10 @@
         <v>200</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E189" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981188@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E189" t="s">
+        <v>694</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>193</v>
@@ -6419,11 +6945,10 @@
         <v>201</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E190" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981189@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E190" t="s">
+        <v>695</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>193</v>
@@ -6440,11 +6965,10 @@
         <v>202</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E191" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981190@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E191" t="s">
+        <v>696</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>193</v>
@@ -6461,11 +6985,10 @@
         <v>203</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E192" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981191@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E192" t="s">
+        <v>697</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>193</v>
@@ -6482,11 +7005,10 @@
         <v>204</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E193" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981192@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E193" t="s">
+        <v>698</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>193</v>
@@ -6503,11 +7025,10 @@
         <v>205</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E194" t="str">
-        <f t="shared" si="2"/>
-        <v>K010300981193@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E194" t="s">
+        <v>699</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>193</v>
@@ -6524,11 +7045,10 @@
         <v>206</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E195" t="str">
-        <f t="shared" ref="E195:E247" si="3">CONCATENATE(A195,"@gmail.com")</f>
-        <v>K010300981194@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E195" t="s">
+        <v>700</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>193</v>
@@ -6545,11 +7065,10 @@
         <v>207</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E196" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981195@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E196" t="s">
+        <v>701</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>193</v>
@@ -6566,11 +7085,10 @@
         <v>208</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E197" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981196@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E197" t="s">
+        <v>702</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>193</v>
@@ -6587,11 +7105,10 @@
         <v>209</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E198" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981197@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E198" t="s">
+        <v>703</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>193</v>
@@ -6608,11 +7125,10 @@
         <v>210</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E199" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981198@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E199" t="s">
+        <v>704</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>193</v>
@@ -6629,11 +7145,10 @@
         <v>211</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E200" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981199@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E200" t="s">
+        <v>705</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>193</v>
@@ -6650,11 +7165,10 @@
         <v>212</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E201" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981200@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E201" t="s">
+        <v>706</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>193</v>
@@ -6671,11 +7185,10 @@
         <v>213</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E202" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981201@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E202" t="s">
+        <v>707</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>193</v>
@@ -6692,11 +7205,10 @@
         <v>214</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E203" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981202@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E203" t="s">
+        <v>708</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>193</v>
@@ -6713,11 +7225,10 @@
         <v>215</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E204" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981203@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E204" t="s">
+        <v>709</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>193</v>
@@ -6734,11 +7245,10 @@
         <v>216</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E205" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981204@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E205" t="s">
+        <v>710</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>193</v>
@@ -6755,11 +7265,10 @@
         <v>217</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E206" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981205@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E206" t="s">
+        <v>711</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>193</v>
@@ -6776,11 +7285,10 @@
         <v>218</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E207" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981206@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E207" t="s">
+        <v>712</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>193</v>
@@ -6797,11 +7305,10 @@
         <v>219</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E208" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981207@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E208" t="s">
+        <v>713</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>193</v>
@@ -6818,11 +7325,10 @@
         <v>220</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E209" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981208@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E209" t="s">
+        <v>714</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>193</v>
@@ -6839,11 +7345,10 @@
         <v>221</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E210" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981209@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E210" t="s">
+        <v>715</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>193</v>
@@ -6860,11 +7365,10 @@
         <v>222</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E211" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981210@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E211" t="s">
+        <v>716</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>193</v>
@@ -6881,11 +7385,10 @@
         <v>223</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E212" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981211@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E212" t="s">
+        <v>717</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>193</v>
@@ -6902,11 +7405,10 @@
         <v>224</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E213" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981212@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E213" t="s">
+        <v>718</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>193</v>
@@ -6923,11 +7425,10 @@
         <v>225</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E214" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981213@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E214" t="s">
+        <v>719</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>193</v>
@@ -6944,11 +7445,10 @@
         <v>226</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E215" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981214@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E215" t="s">
+        <v>720</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>193</v>
@@ -6965,11 +7465,10 @@
         <v>227</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E216" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981215@gmail.com</v>
+        <v>193</v>
+      </c>
+      <c r="E216" t="s">
+        <v>721</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>193</v>
@@ -6986,11 +7485,10 @@
         <v>228</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E217" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981216@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E217" t="s">
+        <v>722</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>229</v>
@@ -7007,11 +7505,10 @@
         <v>230</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E218" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981217@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E218" t="s">
+        <v>723</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>229</v>
@@ -7028,11 +7525,10 @@
         <v>231</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E219" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981218@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E219" t="s">
+        <v>724</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>229</v>
@@ -7049,11 +7545,10 @@
         <v>232</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E220" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981219@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E220" t="s">
+        <v>725</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>229</v>
@@ -7070,11 +7565,10 @@
         <v>233</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E221" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981220@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E221" t="s">
+        <v>726</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>229</v>
@@ -7091,11 +7585,10 @@
         <v>234</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E222" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981221@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E222" t="s">
+        <v>727</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>229</v>
@@ -7112,11 +7605,10 @@
         <v>235</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E223" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981222@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E223" t="s">
+        <v>728</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>229</v>
@@ -7133,11 +7625,10 @@
         <v>236</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E224" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981223@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E224" t="s">
+        <v>729</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>229</v>
@@ -7154,11 +7645,10 @@
         <v>237</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E225" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981224@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E225" t="s">
+        <v>730</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>229</v>
@@ -7175,11 +7665,10 @@
         <v>238</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E226" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981225@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E226" t="s">
+        <v>731</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>229</v>
@@ -7196,11 +7685,10 @@
         <v>239</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E227" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981226@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E227" t="s">
+        <v>732</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>229</v>
@@ -7217,11 +7705,10 @@
         <v>240</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E228" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981227@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E228" t="s">
+        <v>733</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>229</v>
@@ -7238,11 +7725,10 @@
         <v>241</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E229" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981228@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E229" t="s">
+        <v>734</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>229</v>
@@ -7259,11 +7745,10 @@
         <v>242</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E230" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981229@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E230" t="s">
+        <v>735</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>229</v>
@@ -7280,11 +7765,10 @@
         <v>243</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E231" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981230@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E231" t="s">
+        <v>736</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>229</v>
@@ -7301,11 +7785,10 @@
         <v>244</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E232" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981231@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E232" t="s">
+        <v>737</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>229</v>
@@ -7322,11 +7805,10 @@
         <v>245</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E233" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981232@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E233" t="s">
+        <v>738</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>229</v>
@@ -7343,11 +7825,10 @@
         <v>246</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E234" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981233@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E234" t="s">
+        <v>739</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>229</v>
@@ -7364,11 +7845,10 @@
         <v>247</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E235" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981234@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E235" t="s">
+        <v>740</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>229</v>
@@ -7385,11 +7865,10 @@
         <v>248</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E236" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981235@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E236" t="s">
+        <v>741</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>229</v>
@@ -7406,11 +7885,10 @@
         <v>249</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E237" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981236@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E237" t="s">
+        <v>742</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>229</v>
@@ -7427,11 +7905,10 @@
         <v>250</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E238" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981237@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E238" t="s">
+        <v>743</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>229</v>
@@ -7448,11 +7925,10 @@
         <v>251</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E239" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981238@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E239" t="s">
+        <v>744</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>229</v>
@@ -7469,11 +7945,10 @@
         <v>252</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E240" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981239@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E240" t="s">
+        <v>745</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>229</v>
@@ -7490,11 +7965,10 @@
         <v>253</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E241" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981240@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E241" t="s">
+        <v>746</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>229</v>
@@ -7511,11 +7985,10 @@
         <v>254</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E242" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981241@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E242" t="s">
+        <v>747</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>229</v>
@@ -7532,11 +8005,10 @@
         <v>255</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E243" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981242@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E243" t="s">
+        <v>748</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>229</v>
@@ -7553,11 +8025,10 @@
         <v>256</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E244" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981243@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E244" t="s">
+        <v>749</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>229</v>
@@ -7574,11 +8045,10 @@
         <v>257</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E245" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981244@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E245" t="s">
+        <v>750</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>229</v>
@@ -7595,11 +8065,10 @@
         <v>258</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E246" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981245@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E246" t="s">
+        <v>751</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>229</v>
@@ -7616,11 +8085,10 @@
         <v>259</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E247" t="str">
-        <f t="shared" si="3"/>
-        <v>K010300981246@gmail.com</v>
+        <v>229</v>
+      </c>
+      <c r="E247" t="s">
+        <v>752</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>229</v>

--- a/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99680081-805D-D246-A434-3F4B32EC94EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9B969-705A-584C-9F9F-AA5C52F90D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="761">
   <si>
     <t>username</t>
   </si>
@@ -2292,6 +2292,30 @@
   </si>
   <si>
     <t>K010300981246@gmail.com</t>
+  </si>
+  <si>
+    <t>(XII AKL 1)</t>
+  </si>
+  <si>
+    <t>(XII AKL 2)</t>
+  </si>
+  <si>
+    <t>(XII PM)</t>
+  </si>
+  <si>
+    <t>(XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>(XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>(XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>(XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>(XII TJKT 3)</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3166,7 @@
   <dimension ref="A1:F1043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3150,7 +3174,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3185,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E2" t="s">
         <v>507</v>
@@ -3205,7 +3229,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E3" t="s">
         <v>508</v>
@@ -3225,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E4" t="s">
         <v>509</v>
@@ -3245,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E5" t="s">
         <v>510</v>
@@ -3265,7 +3289,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E6" t="s">
         <v>511</v>
@@ -3285,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E7" t="s">
         <v>512</v>
@@ -3305,7 +3329,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E8" t="s">
         <v>513</v>
@@ -3325,7 +3349,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
         <v>514</v>
@@ -3345,7 +3369,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E10" t="s">
         <v>515</v>
@@ -3365,7 +3389,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E11" t="s">
         <v>516</v>
@@ -3385,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E12" t="s">
         <v>517</v>
@@ -3405,7 +3429,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E13" t="s">
         <v>518</v>
@@ -3425,7 +3449,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E14" t="s">
         <v>519</v>
@@ -3445,7 +3469,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E15" t="s">
         <v>520</v>
@@ -3465,7 +3489,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E16" t="s">
         <v>521</v>
@@ -3485,7 +3509,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E17" t="s">
         <v>522</v>
@@ -3505,7 +3529,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E18" t="s">
         <v>523</v>
@@ -3525,7 +3549,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E19" t="s">
         <v>524</v>
@@ -3545,7 +3569,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E20" t="s">
         <v>525</v>
@@ -3565,7 +3589,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E21" t="s">
         <v>526</v>
@@ -3585,7 +3609,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E22" t="s">
         <v>527</v>
@@ -3605,7 +3629,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E23" t="s">
         <v>528</v>
@@ -3625,7 +3649,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E24" t="s">
         <v>529</v>
@@ -3645,7 +3669,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E25" t="s">
         <v>530</v>
@@ -3665,7 +3689,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E26" t="s">
         <v>531</v>
@@ -3685,7 +3709,7 @@
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E27" t="s">
         <v>532</v>
@@ -3705,7 +3729,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E28" t="s">
         <v>533</v>
@@ -3725,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E29" t="s">
         <v>534</v>
@@ -3745,7 +3769,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E30" t="s">
         <v>535</v>
@@ -3765,7 +3789,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E31" t="s">
         <v>536</v>
@@ -3785,7 +3809,7 @@
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E32" t="s">
         <v>537</v>
@@ -3805,7 +3829,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E33" t="s">
         <v>538</v>
@@ -3825,7 +3849,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E34" t="s">
         <v>539</v>
@@ -3845,7 +3869,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E35" t="s">
         <v>540</v>
@@ -3865,7 +3889,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E36" t="s">
         <v>541</v>
@@ -3885,7 +3909,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E37" t="s">
         <v>542</v>
@@ -3905,7 +3929,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E38" t="s">
         <v>543</v>
@@ -3925,7 +3949,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E39" t="s">
         <v>544</v>
@@ -3945,7 +3969,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E40" t="s">
         <v>545</v>
@@ -3965,7 +3989,7 @@
         <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E41" t="s">
         <v>546</v>
@@ -3985,7 +4009,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E42" t="s">
         <v>547</v>
@@ -4005,7 +4029,7 @@
         <v>49</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E43" t="s">
         <v>548</v>
@@ -4025,7 +4049,7 @@
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E44" t="s">
         <v>549</v>
@@ -4045,7 +4069,7 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E45" t="s">
         <v>550</v>
@@ -4065,7 +4089,7 @@
         <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E46" t="s">
         <v>551</v>
@@ -4085,7 +4109,7 @@
         <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E47" t="s">
         <v>552</v>
@@ -4105,7 +4129,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E48" t="s">
         <v>553</v>
@@ -4125,7 +4149,7 @@
         <v>55</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="E49" t="s">
         <v>554</v>
@@ -4145,7 +4169,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E50" t="s">
         <v>555</v>
@@ -4165,7 +4189,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E51" t="s">
         <v>556</v>
@@ -4185,7 +4209,7 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E52" t="s">
         <v>557</v>
@@ -4205,7 +4229,7 @@
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E53" t="s">
         <v>558</v>
@@ -4225,7 +4249,7 @@
         <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E54" t="s">
         <v>559</v>
@@ -4245,7 +4269,7 @@
         <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E55" t="s">
         <v>560</v>
@@ -4265,7 +4289,7 @@
         <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E56" t="s">
         <v>561</v>
@@ -4285,7 +4309,7 @@
         <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E57" t="s">
         <v>562</v>
@@ -4305,7 +4329,7 @@
         <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E58" t="s">
         <v>563</v>
@@ -4325,7 +4349,7 @@
         <v>66</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E59" t="s">
         <v>564</v>
@@ -4345,7 +4369,7 @@
         <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E60" t="s">
         <v>565</v>
@@ -4365,7 +4389,7 @@
         <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E61" t="s">
         <v>566</v>
@@ -4385,7 +4409,7 @@
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E62" t="s">
         <v>567</v>
@@ -4405,7 +4429,7 @@
         <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E63" t="s">
         <v>568</v>
@@ -4425,7 +4449,7 @@
         <v>71</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E64" t="s">
         <v>569</v>
@@ -4445,7 +4469,7 @@
         <v>72</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E65" t="s">
         <v>570</v>
@@ -4465,7 +4489,7 @@
         <v>73</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E66" t="s">
         <v>571</v>
@@ -4485,7 +4509,7 @@
         <v>74</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E67" t="s">
         <v>572</v>
@@ -4505,7 +4529,7 @@
         <v>75</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E68" t="s">
         <v>573</v>
@@ -4525,7 +4549,7 @@
         <v>76</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E69" t="s">
         <v>574</v>
@@ -4545,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E70" t="s">
         <v>575</v>
@@ -4565,7 +4589,7 @@
         <v>78</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E71" t="s">
         <v>576</v>
@@ -4585,7 +4609,7 @@
         <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E72" t="s">
         <v>577</v>
@@ -4605,7 +4629,7 @@
         <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E73" t="s">
         <v>578</v>
@@ -4625,7 +4649,7 @@
         <v>81</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E74" t="s">
         <v>579</v>
@@ -4645,7 +4669,7 @@
         <v>82</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E75" t="s">
         <v>580</v>
@@ -4665,7 +4689,7 @@
         <v>83</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E76" t="s">
         <v>581</v>
@@ -4685,7 +4709,7 @@
         <v>84</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E77" t="s">
         <v>582</v>
@@ -4705,7 +4729,7 @@
         <v>85</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E78" t="s">
         <v>583</v>
@@ -4725,7 +4749,7 @@
         <v>86</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E79" t="s">
         <v>584</v>
@@ -4745,7 +4769,7 @@
         <v>87</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E80" t="s">
         <v>585</v>
@@ -4765,7 +4789,7 @@
         <v>88</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E81" t="s">
         <v>586</v>
@@ -4785,7 +4809,7 @@
         <v>89</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E82" t="s">
         <v>587</v>
@@ -4805,7 +4829,7 @@
         <v>90</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E83" t="s">
         <v>588</v>
@@ -4825,7 +4849,7 @@
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E84" t="s">
         <v>589</v>
@@ -4845,7 +4869,7 @@
         <v>92</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E85" t="s">
         <v>590</v>
@@ -4865,7 +4889,7 @@
         <v>93</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E86" t="s">
         <v>591</v>
@@ -4885,7 +4909,7 @@
         <v>94</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E87" t="s">
         <v>592</v>
@@ -4905,7 +4929,7 @@
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>57</v>
+        <v>755</v>
       </c>
       <c r="E88" t="s">
         <v>593</v>
@@ -4925,7 +4949,7 @@
         <v>96</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E89" t="s">
         <v>594</v>
@@ -4945,7 +4969,7 @@
         <v>98</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E90" t="s">
         <v>595</v>
@@ -4965,7 +4989,7 @@
         <v>99</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E91" t="s">
         <v>596</v>
@@ -4985,7 +5009,7 @@
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E92" t="s">
         <v>597</v>
@@ -5005,7 +5029,7 @@
         <v>101</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E93" t="s">
         <v>598</v>
@@ -5025,7 +5049,7 @@
         <v>102</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E94" t="s">
         <v>599</v>
@@ -5045,7 +5069,7 @@
         <v>103</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E95" t="s">
         <v>600</v>
@@ -5065,7 +5089,7 @@
         <v>104</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E96" t="s">
         <v>601</v>
@@ -5085,7 +5109,7 @@
         <v>105</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E97" t="s">
         <v>602</v>
@@ -5105,7 +5129,7 @@
         <v>106</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E98" t="s">
         <v>603</v>
@@ -5125,7 +5149,7 @@
         <v>107</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E99" t="s">
         <v>604</v>
@@ -5145,7 +5169,7 @@
         <v>108</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E100" t="s">
         <v>605</v>
@@ -5165,7 +5189,7 @@
         <v>109</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E101" t="s">
         <v>606</v>
@@ -5185,7 +5209,7 @@
         <v>110</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E102" t="s">
         <v>607</v>
@@ -5205,7 +5229,7 @@
         <v>111</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E103" t="s">
         <v>608</v>
@@ -5225,7 +5249,7 @@
         <v>112</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E104" t="s">
         <v>609</v>
@@ -5245,7 +5269,7 @@
         <v>113</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E105" t="s">
         <v>610</v>
@@ -5265,7 +5289,7 @@
         <v>114</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E106" t="s">
         <v>611</v>
@@ -5285,7 +5309,7 @@
         <v>115</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E107" t="s">
         <v>612</v>
@@ -5305,7 +5329,7 @@
         <v>116</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E108" t="s">
         <v>613</v>
@@ -5325,7 +5349,7 @@
         <v>117</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E109" t="s">
         <v>614</v>
@@ -5345,7 +5369,7 @@
         <v>118</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E110" t="s">
         <v>615</v>
@@ -5365,7 +5389,7 @@
         <v>119</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E111" t="s">
         <v>616</v>
@@ -5385,7 +5409,7 @@
         <v>120</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E112" t="s">
         <v>617</v>
@@ -5405,7 +5429,7 @@
         <v>121</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E113" t="s">
         <v>618</v>
@@ -5425,7 +5449,7 @@
         <v>122</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E114" t="s">
         <v>619</v>
@@ -5445,7 +5469,7 @@
         <v>123</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E115" t="s">
         <v>620</v>
@@ -5465,7 +5489,7 @@
         <v>124</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E116" t="s">
         <v>621</v>
@@ -5485,7 +5509,7 @@
         <v>125</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E117" t="s">
         <v>622</v>
@@ -5505,7 +5529,7 @@
         <v>126</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="E118" t="s">
         <v>623</v>
@@ -5525,7 +5549,7 @@
         <v>127</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E119" t="s">
         <v>624</v>
@@ -5545,7 +5569,7 @@
         <v>129</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E120" t="s">
         <v>625</v>
@@ -5565,7 +5589,7 @@
         <v>130</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E121" t="s">
         <v>626</v>
@@ -5585,7 +5609,7 @@
         <v>131</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E122" t="s">
         <v>627</v>
@@ -5605,7 +5629,7 @@
         <v>132</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E123" t="s">
         <v>628</v>
@@ -5625,7 +5649,7 @@
         <v>133</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E124" t="s">
         <v>629</v>
@@ -5645,7 +5669,7 @@
         <v>134</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E125" t="s">
         <v>630</v>
@@ -5665,7 +5689,7 @@
         <v>135</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E126" t="s">
         <v>631</v>
@@ -5685,7 +5709,7 @@
         <v>136</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E127" t="s">
         <v>632</v>
@@ -5705,7 +5729,7 @@
         <v>137</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E128" t="s">
         <v>633</v>
@@ -5725,7 +5749,7 @@
         <v>138</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E129" t="s">
         <v>634</v>
@@ -5745,7 +5769,7 @@
         <v>139</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E130" t="s">
         <v>635</v>
@@ -5765,7 +5789,7 @@
         <v>140</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E131" t="s">
         <v>636</v>
@@ -5785,7 +5809,7 @@
         <v>141</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E132" t="s">
         <v>637</v>
@@ -5805,7 +5829,7 @@
         <v>142</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E133" t="s">
         <v>638</v>
@@ -5825,7 +5849,7 @@
         <v>143</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E134" t="s">
         <v>639</v>
@@ -5845,7 +5869,7 @@
         <v>144</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E135" t="s">
         <v>640</v>
@@ -5865,7 +5889,7 @@
         <v>145</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E136" t="s">
         <v>641</v>
@@ -5885,7 +5909,7 @@
         <v>146</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E137" t="s">
         <v>642</v>
@@ -5905,7 +5929,7 @@
         <v>147</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E138" t="s">
         <v>643</v>
@@ -5925,7 +5949,7 @@
         <v>148</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E139" t="s">
         <v>644</v>
@@ -5945,7 +5969,7 @@
         <v>149</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E140" t="s">
         <v>645</v>
@@ -5965,7 +5989,7 @@
         <v>150</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E141" t="s">
         <v>646</v>
@@ -5985,7 +6009,7 @@
         <v>151</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E142" t="s">
         <v>647</v>
@@ -6005,7 +6029,7 @@
         <v>152</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E143" t="s">
         <v>648</v>
@@ -6025,7 +6049,7 @@
         <v>153</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E144" t="s">
         <v>649</v>
@@ -6045,7 +6069,7 @@
         <v>154</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E145" t="s">
         <v>650</v>
@@ -6065,7 +6089,7 @@
         <v>155</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E146" t="s">
         <v>651</v>
@@ -6085,7 +6109,7 @@
         <v>156</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E147" t="s">
         <v>652</v>
@@ -6105,7 +6129,7 @@
         <v>157</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E148" t="s">
         <v>653</v>
@@ -6125,7 +6149,7 @@
         <v>158</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E149" t="s">
         <v>654</v>
@@ -6145,7 +6169,7 @@
         <v>159</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="E150" t="s">
         <v>655</v>
@@ -6165,7 +6189,7 @@
         <v>160</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E151" t="s">
         <v>656</v>
@@ -6185,7 +6209,7 @@
         <v>162</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E152" t="s">
         <v>657</v>
@@ -6205,7 +6229,7 @@
         <v>163</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E153" t="s">
         <v>658</v>
@@ -6225,7 +6249,7 @@
         <v>164</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E154" t="s">
         <v>659</v>
@@ -6245,7 +6269,7 @@
         <v>165</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E155" t="s">
         <v>660</v>
@@ -6265,7 +6289,7 @@
         <v>166</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E156" t="s">
         <v>661</v>
@@ -6285,7 +6309,7 @@
         <v>167</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E157" t="s">
         <v>662</v>
@@ -6305,7 +6329,7 @@
         <v>168</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E158" t="s">
         <v>663</v>
@@ -6325,7 +6349,7 @@
         <v>169</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E159" t="s">
         <v>664</v>
@@ -6345,7 +6369,7 @@
         <v>170</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E160" t="s">
         <v>665</v>
@@ -6365,7 +6389,7 @@
         <v>171</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E161" t="s">
         <v>666</v>
@@ -6385,7 +6409,7 @@
         <v>172</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E162" t="s">
         <v>667</v>
@@ -6405,7 +6429,7 @@
         <v>173</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E163" t="s">
         <v>668</v>
@@ -6425,7 +6449,7 @@
         <v>174</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E164" t="s">
         <v>669</v>
@@ -6445,7 +6469,7 @@
         <v>175</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E165" t="s">
         <v>670</v>
@@ -6465,7 +6489,7 @@
         <v>176</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E166" t="s">
         <v>671</v>
@@ -6485,7 +6509,7 @@
         <v>177</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E167" t="s">
         <v>672</v>
@@ -6505,7 +6529,7 @@
         <v>178</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E168" t="s">
         <v>673</v>
@@ -6525,7 +6549,7 @@
         <v>179</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E169" t="s">
         <v>674</v>
@@ -6545,7 +6569,7 @@
         <v>180</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E170" t="s">
         <v>675</v>
@@ -6565,7 +6589,7 @@
         <v>181</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E171" t="s">
         <v>676</v>
@@ -6585,7 +6609,7 @@
         <v>182</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E172" t="s">
         <v>677</v>
@@ -6605,7 +6629,7 @@
         <v>183</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E173" t="s">
         <v>678</v>
@@ -6625,7 +6649,7 @@
         <v>184</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E174" t="s">
         <v>679</v>
@@ -6645,7 +6669,7 @@
         <v>185</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E175" t="s">
         <v>680</v>
@@ -6665,7 +6689,7 @@
         <v>186</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E176" t="s">
         <v>681</v>
@@ -6685,7 +6709,7 @@
         <v>187</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E177" t="s">
         <v>682</v>
@@ -6705,7 +6729,7 @@
         <v>188</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E178" t="s">
         <v>683</v>
@@ -6725,7 +6749,7 @@
         <v>189</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E179" t="s">
         <v>684</v>
@@ -6745,7 +6769,7 @@
         <v>190</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E180" t="s">
         <v>685</v>
@@ -6765,7 +6789,7 @@
         <v>191</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>161</v>
+        <v>758</v>
       </c>
       <c r="E181" t="s">
         <v>686</v>
@@ -6785,7 +6809,7 @@
         <v>192</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E182" t="s">
         <v>687</v>
@@ -6805,7 +6829,7 @@
         <v>194</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E183" t="s">
         <v>688</v>
@@ -6825,7 +6849,7 @@
         <v>195</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E184" t="s">
         <v>689</v>
@@ -6845,7 +6869,7 @@
         <v>196</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E185" t="s">
         <v>690</v>
@@ -6865,7 +6889,7 @@
         <v>197</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E186" t="s">
         <v>691</v>
@@ -6885,7 +6909,7 @@
         <v>198</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E187" t="s">
         <v>692</v>
@@ -6905,7 +6929,7 @@
         <v>199</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E188" t="s">
         <v>693</v>
@@ -6925,7 +6949,7 @@
         <v>200</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E189" t="s">
         <v>694</v>
@@ -6945,7 +6969,7 @@
         <v>201</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E190" t="s">
         <v>695</v>
@@ -6965,7 +6989,7 @@
         <v>202</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E191" t="s">
         <v>696</v>
@@ -6985,7 +7009,7 @@
         <v>203</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E192" t="s">
         <v>697</v>
@@ -7005,7 +7029,7 @@
         <v>204</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E193" t="s">
         <v>698</v>
@@ -7025,7 +7049,7 @@
         <v>205</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E194" t="s">
         <v>699</v>
@@ -7045,7 +7069,7 @@
         <v>206</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E195" t="s">
         <v>700</v>
@@ -7065,7 +7089,7 @@
         <v>207</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E196" t="s">
         <v>701</v>
@@ -7085,7 +7109,7 @@
         <v>208</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E197" t="s">
         <v>702</v>
@@ -7105,7 +7129,7 @@
         <v>209</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E198" t="s">
         <v>703</v>
@@ -7125,7 +7149,7 @@
         <v>210</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E199" t="s">
         <v>704</v>
@@ -7145,7 +7169,7 @@
         <v>211</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E200" t="s">
         <v>705</v>
@@ -7165,7 +7189,7 @@
         <v>212</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E201" t="s">
         <v>706</v>
@@ -7185,7 +7209,7 @@
         <v>213</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E202" t="s">
         <v>707</v>
@@ -7205,7 +7229,7 @@
         <v>214</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E203" t="s">
         <v>708</v>
@@ -7225,7 +7249,7 @@
         <v>215</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E204" t="s">
         <v>709</v>
@@ -7245,7 +7269,7 @@
         <v>216</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E205" t="s">
         <v>710</v>
@@ -7265,7 +7289,7 @@
         <v>217</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E206" t="s">
         <v>711</v>
@@ -7285,7 +7309,7 @@
         <v>218</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E207" t="s">
         <v>712</v>
@@ -7305,7 +7329,7 @@
         <v>219</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E208" t="s">
         <v>713</v>
@@ -7325,7 +7349,7 @@
         <v>220</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E209" t="s">
         <v>714</v>
@@ -7345,7 +7369,7 @@
         <v>221</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E210" t="s">
         <v>715</v>
@@ -7365,7 +7389,7 @@
         <v>222</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E211" t="s">
         <v>716</v>
@@ -7385,7 +7409,7 @@
         <v>223</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E212" t="s">
         <v>717</v>
@@ -7405,7 +7429,7 @@
         <v>224</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E213" t="s">
         <v>718</v>
@@ -7425,7 +7449,7 @@
         <v>225</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E214" t="s">
         <v>719</v>
@@ -7445,7 +7469,7 @@
         <v>226</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E215" t="s">
         <v>720</v>
@@ -7465,7 +7489,7 @@
         <v>227</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="E216" t="s">
         <v>721</v>
@@ -7485,7 +7509,7 @@
         <v>228</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E217" t="s">
         <v>722</v>
@@ -7505,7 +7529,7 @@
         <v>230</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E218" t="s">
         <v>723</v>
@@ -7525,7 +7549,7 @@
         <v>231</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E219" t="s">
         <v>724</v>
@@ -7545,7 +7569,7 @@
         <v>232</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E220" t="s">
         <v>725</v>
@@ -7565,7 +7589,7 @@
         <v>233</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E221" t="s">
         <v>726</v>
@@ -7585,7 +7609,7 @@
         <v>234</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E222" t="s">
         <v>727</v>
@@ -7605,7 +7629,7 @@
         <v>235</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E223" t="s">
         <v>728</v>
@@ -7625,7 +7649,7 @@
         <v>236</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E224" t="s">
         <v>729</v>
@@ -7645,7 +7669,7 @@
         <v>237</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E225" t="s">
         <v>730</v>
@@ -7665,7 +7689,7 @@
         <v>238</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E226" t="s">
         <v>731</v>
@@ -7685,7 +7709,7 @@
         <v>239</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E227" t="s">
         <v>732</v>
@@ -7705,7 +7729,7 @@
         <v>240</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E228" t="s">
         <v>733</v>
@@ -7725,7 +7749,7 @@
         <v>241</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E229" t="s">
         <v>734</v>
@@ -7745,7 +7769,7 @@
         <v>242</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E230" t="s">
         <v>735</v>
@@ -7765,7 +7789,7 @@
         <v>243</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E231" t="s">
         <v>736</v>
@@ -7785,7 +7809,7 @@
         <v>244</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E232" t="s">
         <v>737</v>
@@ -7805,7 +7829,7 @@
         <v>245</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E233" t="s">
         <v>738</v>
@@ -7825,7 +7849,7 @@
         <v>246</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E234" t="s">
         <v>739</v>
@@ -7845,7 +7869,7 @@
         <v>247</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E235" t="s">
         <v>740</v>
@@ -7865,7 +7889,7 @@
         <v>248</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E236" t="s">
         <v>741</v>
@@ -7885,7 +7909,7 @@
         <v>249</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E237" t="s">
         <v>742</v>
@@ -7905,7 +7929,7 @@
         <v>250</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E238" t="s">
         <v>743</v>
@@ -7925,7 +7949,7 @@
         <v>251</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E239" t="s">
         <v>744</v>
@@ -7945,7 +7969,7 @@
         <v>252</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E240" t="s">
         <v>745</v>
@@ -7965,7 +7989,7 @@
         <v>253</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E241" t="s">
         <v>746</v>
@@ -7985,7 +8009,7 @@
         <v>254</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E242" t="s">
         <v>747</v>
@@ -8005,7 +8029,7 @@
         <v>255</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E243" t="s">
         <v>748</v>
@@ -8025,7 +8049,7 @@
         <v>256</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E244" t="s">
         <v>749</v>
@@ -8045,7 +8069,7 @@
         <v>257</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E245" t="s">
         <v>750</v>
@@ -8065,7 +8089,7 @@
         <v>258</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E246" t="s">
         <v>751</v>
@@ -8085,7 +8109,7 @@
         <v>259</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>229</v>
+        <v>760</v>
       </c>
       <c r="E247" t="s">
         <v>752</v>

--- a/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9B969-705A-584C-9F9F-AA5C52F90D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7E04A1-62E3-5A4E-BC20-F31F8DD21CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,9 +815,6 @@
     <t>TUBAGUS ABU BAKAR ZEIN</t>
   </si>
   <si>
-    <t>T0SMKTH</t>
-  </si>
-  <si>
     <t>K010300981001</t>
   </si>
   <si>
@@ -2316,6 +2313,9 @@
   </si>
   <si>
     <t>(XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>T0SMKTH*</t>
   </si>
 </sst>
 </file>
@@ -2867,9 +2867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2907,7 +2907,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3013,7 +3013,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3155,7 +3155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3165,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3200,19 +3200,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -3220,19 +3220,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -3240,19 +3240,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -3260,19 +3260,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -3280,19 +3280,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -3300,19 +3300,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -3320,19 +3320,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -3340,19 +3340,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -3360,19 +3360,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -3380,19 +3380,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -3400,19 +3400,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -3440,19 +3440,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -3460,19 +3460,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -3480,19 +3480,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -3500,19 +3500,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -3520,19 +3520,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -3540,19 +3540,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -3560,19 +3560,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
@@ -3580,19 +3580,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>7</v>
@@ -3600,19 +3600,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -3620,19 +3620,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -3640,19 +3640,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
@@ -3660,19 +3660,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -3680,19 +3680,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -3700,19 +3700,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>33</v>
@@ -3720,19 +3720,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>33</v>
@@ -3740,19 +3740,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>33</v>
@@ -3760,19 +3760,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>33</v>
@@ -3780,19 +3780,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
@@ -3800,19 +3800,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>33</v>
@@ -3820,19 +3820,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>33</v>
@@ -3840,19 +3840,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
@@ -3860,19 +3860,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>33</v>
@@ -3880,19 +3880,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>33</v>
@@ -3900,19 +3900,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>33</v>
@@ -3920,19 +3920,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>33</v>
@@ -3940,19 +3940,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>33</v>
@@ -3960,19 +3960,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>33</v>
@@ -3980,19 +3980,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>33</v>
@@ -4000,19 +4000,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>33</v>
@@ -4020,19 +4020,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>33</v>
@@ -4040,19 +4040,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>33</v>
@@ -4060,19 +4060,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>33</v>
@@ -4080,19 +4080,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>33</v>
@@ -4100,19 +4100,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E47" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>33</v>
@@ -4120,19 +4120,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>33</v>
@@ -4140,19 +4140,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>33</v>
@@ -4160,19 +4160,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E50" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
@@ -4180,19 +4180,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E51" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>57</v>
@@ -4200,19 +4200,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>57</v>
@@ -4220,19 +4220,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E53" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>57</v>
@@ -4240,19 +4240,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>57</v>
@@ -4260,19 +4260,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E55" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>57</v>
@@ -4280,19 +4280,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E56" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>57</v>
@@ -4300,19 +4300,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>57</v>
@@ -4320,19 +4320,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E58" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>57</v>
@@ -4340,19 +4340,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E59" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>57</v>
@@ -4360,19 +4360,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E60" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>57</v>
@@ -4380,19 +4380,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E61" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>57</v>
@@ -4400,19 +4400,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E62" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>57</v>
@@ -4420,19 +4420,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E63" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>57</v>
@@ -4440,19 +4440,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>57</v>
@@ -4460,19 +4460,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E65" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>57</v>
@@ -4480,19 +4480,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>57</v>
@@ -4500,19 +4500,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>57</v>
@@ -4520,19 +4520,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>57</v>
@@ -4540,19 +4540,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E69" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>57</v>
@@ -4560,19 +4560,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>57</v>
@@ -4580,19 +4580,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>57</v>
@@ -4600,19 +4600,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E72" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>57</v>
@@ -4620,19 +4620,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>57</v>
@@ -4640,19 +4640,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E74" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>57</v>
@@ -4660,19 +4660,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>57</v>
@@ -4680,19 +4680,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E76" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>57</v>
@@ -4700,19 +4700,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>57</v>
@@ -4720,19 +4720,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>57</v>
@@ -4740,19 +4740,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E79" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>57</v>
@@ -4760,19 +4760,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>57</v>
@@ -4780,19 +4780,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E81" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>57</v>
@@ -4800,19 +4800,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>57</v>
@@ -4820,19 +4820,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B83" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>57</v>
@@ -4840,19 +4840,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E84" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>57</v>
@@ -4860,19 +4860,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E85" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>57</v>
@@ -4880,19 +4880,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E86" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>57</v>
@@ -4900,19 +4900,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E87" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>57</v>
@@ -4920,19 +4920,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E88" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>57</v>
@@ -4940,19 +4940,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E89" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>97</v>
@@ -4960,19 +4960,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E90" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>97</v>
@@ -4980,19 +4980,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E91" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>97</v>
@@ -5000,19 +5000,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E92" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>97</v>
@@ -5020,19 +5020,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B93" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E93" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>97</v>
@@ -5040,19 +5040,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B94" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E94" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>97</v>
@@ -5060,19 +5060,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E95" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>97</v>
@@ -5080,19 +5080,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E96" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>97</v>
@@ -5100,19 +5100,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E97" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>97</v>
@@ -5120,19 +5120,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E98" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>97</v>
@@ -5140,19 +5140,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E99" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>97</v>
@@ -5160,19 +5160,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B100" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E100" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>97</v>
@@ -5180,19 +5180,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E101" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>97</v>
@@ -5200,19 +5200,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>97</v>
@@ -5220,19 +5220,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B103" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E103" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>97</v>
@@ -5240,19 +5240,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E104" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>97</v>
@@ -5260,19 +5260,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E105" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>97</v>
@@ -5280,19 +5280,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E106" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>97</v>
@@ -5300,19 +5300,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E107" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>97</v>
@@ -5320,19 +5320,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E108" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>97</v>
@@ -5340,19 +5340,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B109" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E109" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>97</v>
@@ -5360,19 +5360,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>97</v>
@@ -5380,19 +5380,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E111" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>97</v>
@@ -5400,19 +5400,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B112" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E112" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>97</v>
@@ -5420,19 +5420,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E113" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>97</v>
@@ -5440,19 +5440,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E114" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>97</v>
@@ -5460,19 +5460,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E115" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>97</v>
@@ -5480,19 +5480,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>97</v>
@@ -5500,19 +5500,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B117" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E117" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>97</v>
@@ -5520,19 +5520,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B118" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E118" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>97</v>
@@ -5540,19 +5540,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E119" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>128</v>
@@ -5560,19 +5560,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B120" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E120" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>128</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E121" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>128</v>
@@ -5600,19 +5600,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E122" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>128</v>
@@ -5620,19 +5620,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B123" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E123" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>128</v>
@@ -5640,19 +5640,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B124" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E124" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>128</v>
@@ -5660,19 +5660,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E125" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>128</v>
@@ -5680,19 +5680,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E126" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>128</v>
@@ -5700,19 +5700,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E127" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>128</v>
@@ -5720,19 +5720,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E128" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>128</v>
@@ -5740,19 +5740,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E129" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>128</v>
@@ -5760,19 +5760,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E130" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>128</v>
@@ -5780,19 +5780,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E131" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>128</v>
@@ -5800,19 +5800,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E132" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>128</v>
@@ -5820,19 +5820,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E133" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>128</v>
@@ -5840,19 +5840,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E134" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>128</v>
@@ -5860,19 +5860,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E135" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>128</v>
@@ -5880,19 +5880,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E136" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>128</v>
@@ -5900,19 +5900,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E137" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>128</v>
@@ -5920,19 +5920,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B138" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E138" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>128</v>
@@ -5940,19 +5940,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E139" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>128</v>
@@ -5960,19 +5960,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E140" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>128</v>
@@ -5980,19 +5980,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E141" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>128</v>
@@ -6000,19 +6000,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E142" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>128</v>
@@ -6020,19 +6020,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E143" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>128</v>
@@ -6040,19 +6040,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E144" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>128</v>
@@ -6060,19 +6060,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E145" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>128</v>
@@ -6080,19 +6080,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E146" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>128</v>
@@ -6100,19 +6100,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E147" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>128</v>
@@ -6120,19 +6120,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E148" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>128</v>
@@ -6140,19 +6140,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E149" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>128</v>
@@ -6160,19 +6160,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E150" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>128</v>
@@ -6180,19 +6180,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B151" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E151" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>161</v>
@@ -6200,19 +6200,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B152" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E152" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>161</v>
@@ -6220,19 +6220,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E153" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>161</v>
@@ -6240,19 +6240,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B154" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E154" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>161</v>
@@ -6260,19 +6260,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B155" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E155" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>161</v>
@@ -6280,19 +6280,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B156" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E156" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>161</v>
@@ -6300,19 +6300,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E157" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>161</v>
@@ -6320,19 +6320,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E158" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>161</v>
@@ -6340,19 +6340,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B159" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E159" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>161</v>
@@ -6360,19 +6360,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B160" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E160" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>161</v>
@@ -6380,19 +6380,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B161" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E161" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>161</v>
@@ -6400,19 +6400,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B162" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E162" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>161</v>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B163" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E163" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>161</v>
@@ -6440,19 +6440,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B164" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E164" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>161</v>
@@ -6460,19 +6460,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B165" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E165" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>161</v>
@@ -6480,19 +6480,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E166" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>161</v>
@@ -6500,19 +6500,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B167" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E167" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>161</v>
@@ -6520,19 +6520,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E168" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>161</v>
@@ -6540,19 +6540,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B169" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E169" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>161</v>
@@ -6560,19 +6560,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E170" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>161</v>
@@ -6580,19 +6580,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B171" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E171" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>161</v>
@@ -6600,19 +6600,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B172" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E172" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>161</v>
@@ -6620,19 +6620,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B173" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E173" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>161</v>
@@ -6640,19 +6640,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B174" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E174" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>161</v>
@@ -6660,19 +6660,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B175" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E175" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>161</v>
@@ -6680,19 +6680,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B176" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E176" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>161</v>
@@ -6700,19 +6700,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B177" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E177" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>161</v>
@@ -6720,19 +6720,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B178" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E178" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>161</v>
@@ -6740,19 +6740,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E179" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>161</v>
@@ -6760,19 +6760,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B180" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E180" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>161</v>
@@ -6780,19 +6780,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B181" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E181" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>161</v>
@@ -6800,19 +6800,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B182" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E182" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>193</v>
@@ -6820,19 +6820,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B183" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E183" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>193</v>
@@ -6840,19 +6840,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B184" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E184" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>193</v>
@@ -6860,19 +6860,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B185" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E185" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>193</v>
@@ -6880,19 +6880,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B186" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E186" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>193</v>
@@ -6900,19 +6900,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B187" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E187" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>193</v>
@@ -6920,19 +6920,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E188" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>193</v>
@@ -6940,19 +6940,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B189" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E189" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>193</v>
@@ -6960,19 +6960,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B190" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E190" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>193</v>
@@ -6980,19 +6980,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B191" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E191" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>193</v>
@@ -7000,19 +7000,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E192" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>193</v>
@@ -7020,19 +7020,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B193" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E193" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>193</v>
@@ -7040,19 +7040,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E194" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>193</v>
@@ -7060,19 +7060,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B195" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E195" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>193</v>
@@ -7080,19 +7080,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B196" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E196" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>193</v>
@@ -7100,19 +7100,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B197" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E197" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>193</v>
@@ -7120,19 +7120,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B198" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E198" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>193</v>
@@ -7140,19 +7140,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B199" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E199" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>193</v>
@@ -7160,19 +7160,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B200" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E200" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>193</v>
@@ -7180,19 +7180,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B201" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E201" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>193</v>
@@ -7200,19 +7200,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B202" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E202" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>193</v>
@@ -7220,19 +7220,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B203" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E203" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>193</v>
@@ -7240,19 +7240,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B204" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E204" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>193</v>
@@ -7260,19 +7260,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B205" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E205" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>193</v>
@@ -7280,19 +7280,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B206" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E206" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>193</v>
@@ -7300,19 +7300,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B207" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E207" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>193</v>
@@ -7320,19 +7320,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B208" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E208" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>193</v>
@@ -7340,19 +7340,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B209" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E209" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>193</v>
@@ -7360,19 +7360,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B210" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E210" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>193</v>
@@ -7380,19 +7380,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B211" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E211" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>193</v>
@@ -7400,19 +7400,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B212" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E212" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>193</v>
@@ -7420,19 +7420,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B213" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E213" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>193</v>
@@ -7440,19 +7440,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B214" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E214" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>193</v>
@@ -7460,19 +7460,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B215" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E215" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>193</v>
@@ -7480,19 +7480,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B216" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E216" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>193</v>
@@ -7500,19 +7500,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B217" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E217" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>229</v>
@@ -7520,19 +7520,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B218" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E218" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>229</v>
@@ -7540,19 +7540,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B219" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E219" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>229</v>
@@ -7560,19 +7560,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B220" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E220" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>229</v>
@@ -7580,19 +7580,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B221" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E221" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>229</v>
@@ -7600,19 +7600,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B222" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E222" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>229</v>
@@ -7620,19 +7620,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B223" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E223" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>229</v>
@@ -7640,19 +7640,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B224" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E224" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>229</v>
@@ -7660,19 +7660,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B225" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E225" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>229</v>
@@ -7680,19 +7680,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B226" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E226" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>229</v>
@@ -7700,19 +7700,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B227" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E227" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>229</v>
@@ -7720,19 +7720,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B228" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E228" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>229</v>
@@ -7740,19 +7740,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B229" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E229" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>229</v>
@@ -7760,19 +7760,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B230" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E230" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>229</v>
@@ -7780,19 +7780,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B231" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E231" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>229</v>
@@ -7800,19 +7800,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B232" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E232" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>229</v>
@@ -7820,19 +7820,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B233" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E233" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>229</v>
@@ -7840,19 +7840,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B234" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E234" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>229</v>
@@ -7860,19 +7860,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B235" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E235" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>229</v>
@@ -7880,19 +7880,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B236" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E236" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>229</v>
@@ -7900,19 +7900,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B237" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E237" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>229</v>
@@ -7920,19 +7920,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B238" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E238" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>229</v>
@@ -7940,19 +7940,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B239" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E239" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>229</v>
@@ -7960,19 +7960,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B240" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E240" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>229</v>
@@ -7980,19 +7980,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B241" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E241" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>229</v>
@@ -8000,19 +8000,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B242" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E242" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>229</v>
@@ -8020,19 +8020,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B243" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E243" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>229</v>
@@ -8040,19 +8040,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B244" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E244" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>229</v>
@@ -8060,19 +8060,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B245" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E245" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>229</v>
@@ -8080,19 +8080,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B246" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E246" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>229</v>
@@ -8100,19 +8100,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B247" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E247" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>229</v>

--- a/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7E04A1-62E3-5A4E-BC20-F31F8DD21CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B63ED-79CD-F84B-9382-087775F28706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,7 +2315,7 @@
     <t>(XII TJKT 3)</t>
   </si>
   <si>
-    <t>T0SMKTH*</t>
+    <t>T0SMKTH#</t>
   </si>
 </sst>
 </file>
@@ -3165,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B63ED-79CD-F84B-9382-087775F28706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D117124-AD1D-4A41-AFF8-5D98C887885F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,7 +2315,7 @@
     <t>(XII TJKT 3)</t>
   </si>
   <si>
-    <t>T0SMKTH#</t>
+    <t>T0SMKTH</t>
   </si>
 </sst>
 </file>
